--- a/mcm/Korea.xlsx
+++ b/mcm/Korea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\matlab\mcm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854E5808-6A68-4B8E-90BD-56072BD8D47E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F06175-2503-4EC1-BC66-AF77F359A034}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>2月15号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
     <t>4月30号</t>
   </si>
   <si>
-    <t>韩国每日确诊人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韩国新增治愈人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -272,7 +268,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>现有确诊</t>
+    <t>韩国新增确诊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计治愈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现有确诊人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -609,24 +617,32 @@
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -640,10 +656,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -657,10 +679,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -674,10 +702,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -691,10 +725,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -708,10 +748,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -725,10 +771,16 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -742,10 +794,16 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -759,10 +817,16 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -776,10 +840,16 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -793,10 +863,16 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -810,10 +886,16 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -827,10 +909,16 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+      <c r="F13">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -844,10 +932,16 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>6070</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+      <c r="F14">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -861,10 +955,16 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>8364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -878,10 +978,16 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>11468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -895,10 +1001,16 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>15142</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+      <c r="F17">
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -912,10 +1024,16 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>19363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+      <c r="F18">
+        <v>26</v>
+      </c>
+      <c r="G18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -929,10 +1047,16 @@
         <v>4</v>
       </c>
       <c r="E19">
-        <v>24472</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+      <c r="F19">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -946,10 +1070,16 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>29920</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -963,10 +1093,16 @@
         <v>7</v>
       </c>
       <c r="E21">
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -980,10 +1116,16 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>42403</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="F22">
+        <v>110</v>
+      </c>
+      <c r="G22">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -997,10 +1139,16 @@
         <v>6</v>
       </c>
       <c r="E23">
-        <v>49260</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="F23">
+        <v>122</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1014,10 +1162,16 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>56320</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+      <c r="F24">
+        <v>158</v>
+      </c>
+      <c r="G24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1031,10 +1185,16 @@
         <v>3</v>
       </c>
       <c r="E25">
-        <v>63414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="F25">
+        <v>239</v>
+      </c>
+      <c r="G25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1048,10 +1208,16 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>70532</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>280</v>
+      </c>
+      <c r="G26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1065,10 +1231,16 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>77843</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+      <c r="F27">
+        <v>325</v>
+      </c>
+      <c r="G27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1082,10 +1254,16 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>84958</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="F28">
+        <v>502</v>
+      </c>
+      <c r="G28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1099,10 +1277,16 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>91947</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="F29">
+        <v>706</v>
+      </c>
+      <c r="G29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1116,10 +1300,16 @@
         <v>3</v>
       </c>
       <c r="E30">
-        <v>99004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="F30">
+        <v>826</v>
+      </c>
+      <c r="G30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1133,10 +1323,16 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>105953</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F31">
+        <v>1129</v>
+      </c>
+      <c r="G31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1150,10 +1346,16 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>112970</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F32">
+        <v>1129</v>
+      </c>
+      <c r="G32">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1167,10 +1369,16 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>119397</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F33">
+        <v>1532</v>
+      </c>
+      <c r="G33">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1184,10 +1392,16 @@
         <v>2</v>
       </c>
       <c r="E34">
-        <v>125777</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="F34">
+        <v>1939</v>
+      </c>
+      <c r="G34">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1201,10 +1415,16 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>132011</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="F35">
+        <v>2225</v>
+      </c>
+      <c r="G35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1218,10 +1438,16 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>137955</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F36">
+        <v>2604</v>
+      </c>
+      <c r="G36">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1235,10 +1461,16 @@
         <v>2</v>
       </c>
       <c r="E37">
-        <v>143741</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="F37">
+        <v>2901</v>
+      </c>
+      <c r="G37">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1252,10 +1484,16 @@
         <v>7</v>
       </c>
       <c r="E38">
-        <v>149361</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="F38">
+        <v>3158</v>
+      </c>
+      <c r="G38">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1269,10 +1507,16 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>154695</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F39">
+        <v>3499</v>
+      </c>
+      <c r="G39">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1286,10 +1530,16 @@
         <v>7</v>
       </c>
       <c r="E40">
-        <v>159875</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="F40">
+        <v>3722</v>
+      </c>
+      <c r="G40">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1303,10 +1553,16 @@
         <v>4</v>
       </c>
       <c r="E41">
-        <v>164738</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F41">
+        <v>4136</v>
+      </c>
+      <c r="G41">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1320,10 +1576,16 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>169312</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+      <c r="F42">
+        <v>4520</v>
+      </c>
+      <c r="G42">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1337,10 +1599,16 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <v>173689</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F43">
+        <v>4803</v>
+      </c>
+      <c r="G43">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1354,10 +1622,16 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>177982</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F44">
+        <v>5025</v>
+      </c>
+      <c r="G44">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1371,10 +1645,16 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>182179</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="F45">
+        <v>5220</v>
+      </c>
+      <c r="G45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1388,10 +1668,16 @@
         <v>4</v>
       </c>
       <c r="E46">
-        <v>186270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F46">
+        <v>5400</v>
+      </c>
+      <c r="G46">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1405,10 +1691,16 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>190324</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="F47">
+        <v>5559</v>
+      </c>
+      <c r="G47">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1422,10 +1714,16 @@
         <v>4</v>
       </c>
       <c r="E48">
-        <v>194214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="F48">
+        <v>5820</v>
+      </c>
+      <c r="G48">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1439,10 +1737,16 @@
         <v>5</v>
       </c>
       <c r="E49">
-        <v>197995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="F49">
+        <v>6013</v>
+      </c>
+      <c r="G49">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1456,10 +1760,16 @@
         <v>3</v>
       </c>
       <c r="E50">
-        <v>201555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="F50">
+        <v>6317</v>
+      </c>
+      <c r="G50">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1473,10 +1783,16 @@
         <v>6</v>
       </c>
       <c r="E51">
-        <v>205065</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F51">
+        <v>6455</v>
+      </c>
+      <c r="G51">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1490,10 +1806,16 @@
         <v>3</v>
       </c>
       <c r="E52">
-        <v>208518</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F52">
+        <v>6590</v>
+      </c>
+      <c r="G52">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1507,10 +1829,16 @@
         <v>6</v>
       </c>
       <c r="E53">
-        <v>211916</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F53">
+        <v>6686</v>
+      </c>
+      <c r="G53">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1524,10 +1852,16 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>215271</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F54">
+        <v>6768</v>
+      </c>
+      <c r="G54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1541,10 +1875,16 @@
         <v>4</v>
       </c>
       <c r="E55">
-        <v>218478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="F55">
+        <v>6965</v>
+      </c>
+      <c r="G55">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1558,10 +1898,16 @@
         <v>4</v>
       </c>
       <c r="E56">
-        <v>221576</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>7109</v>
+      </c>
+      <c r="G56">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1575,10 +1921,16 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <v>224572</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F57">
+        <v>7235</v>
+      </c>
+      <c r="G57">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1592,10 +1944,16 @@
         <v>3</v>
       </c>
       <c r="E58">
-        <v>227470</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="F58">
+        <v>7360</v>
+      </c>
+      <c r="G58">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1609,10 +1967,16 @@
         <v>3</v>
       </c>
       <c r="E59">
-        <v>230318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F59">
+        <v>7439</v>
+      </c>
+      <c r="G59">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1626,10 +1990,16 @@
         <v>5</v>
       </c>
       <c r="E60">
-        <v>233099</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="F60">
+        <v>7526</v>
+      </c>
+      <c r="G60">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1643,10 +2013,16 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>235822</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F61">
+        <v>7608</v>
+      </c>
+      <c r="G61">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1660,10 +2036,16 @@
         <v>4</v>
       </c>
       <c r="E62">
-        <v>238437</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="F62">
+        <v>7749</v>
+      </c>
+      <c r="G62">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1677,10 +2059,16 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>240991</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F63">
+        <v>7821</v>
+      </c>
+      <c r="G63">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1694,10 +2082,16 @@
         <v>2</v>
       </c>
       <c r="E64">
-        <v>243457</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F64">
+        <v>7929</v>
+      </c>
+      <c r="G64">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1711,10 +2105,16 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>245834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>8034</v>
+      </c>
+      <c r="G65">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1728,10 +2128,16 @@
         <v>2</v>
       </c>
       <c r="E66">
-        <v>248145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F66">
+        <v>8106</v>
+      </c>
+      <c r="G66">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1745,10 +2151,16 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>250369</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>8205</v>
+      </c>
+      <c r="G67">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1762,10 +2174,16 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>252537</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>8269</v>
+      </c>
+      <c r="G68">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1779,10 +2197,16 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <v>254580</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F69">
+        <v>8403</v>
+      </c>
+      <c r="G69">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1796,10 +2220,16 @@
         <v>0</v>
       </c>
       <c r="E70">
-        <v>256541</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>8493</v>
+      </c>
+      <c r="G70">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1813,10 +2243,16 @@
         <v>0</v>
       </c>
       <c r="E71">
-        <v>258374</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>8627</v>
+      </c>
+      <c r="G71">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1830,10 +2266,16 @@
         <v>2</v>
       </c>
       <c r="E72">
-        <v>260133</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>8709</v>
+      </c>
+      <c r="G72">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1847,10 +2289,16 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>261854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>8756</v>
+      </c>
+      <c r="G73">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1864,10 +2312,16 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>263494</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <v>8846</v>
+      </c>
+      <c r="G74">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1881,10 +2335,16 @@
         <v>2</v>
       </c>
       <c r="E75">
-        <v>265078</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="F75">
+        <v>8914</v>
+      </c>
+      <c r="G75">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1898,10 +2358,16 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>266533</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F76">
+        <v>9051</v>
+      </c>
+      <c r="G76">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1915,7 +2381,13 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>267978</v>
+        <v>9</v>
+      </c>
+      <c r="F77">
+        <v>9064</v>
+      </c>
+      <c r="G77">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
